--- a/Documentación/Empresa/Costos.xlsx
+++ b/Documentación/Empresa/Costos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L03502024\Documents\GitHub\dta-agricola\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L03502024\Documents\GitHub\dta-agricola\Documentación\Empresa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49152241-1179-466F-AB90-5C82BDBA6D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4368CC21-ECF6-4D01-B274-6EC8F4E597FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>Clave del producto y/o servicio</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Subtotal</t>
   </si>
   <si>
-    <t>Impuestos trasladados</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -153,6 +150,30 @@
   </si>
   <si>
     <t>Ingeniería de software o hardware</t>
+  </si>
+  <si>
+    <t>Impuestos trasladados IVA 16%</t>
+  </si>
+  <si>
+    <t>Moneda:</t>
+  </si>
+  <si>
+    <t>Peso Mexicano</t>
+  </si>
+  <si>
+    <t>Forma de pago:</t>
+  </si>
+  <si>
+    <t>Condiciones de pago:</t>
+  </si>
+  <si>
+    <t>Transferencia bancaria</t>
+  </si>
+  <si>
+    <t>Una exhibición</t>
+  </si>
+  <si>
+    <t>526251020232 526251531996 526251037317</t>
   </si>
 </sst>
 </file>
@@ -200,7 +221,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -226,47 +247,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -549,11 +611,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A2:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -567,292 +627,317 @@
     <col min="11" max="11" width="11.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="11" t="s">
+      <c r="J2" s="9"/>
+      <c r="K2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="6" t="s">
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="15">
         <v>39121400</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" t="s">
+      <c r="B4" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D4" s="17">
+        <v>3</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="19">
+        <v>16000</v>
+      </c>
+      <c r="H4" s="20">
+        <v>0</v>
+      </c>
+      <c r="I4" s="20">
+        <v>0.16</v>
+      </c>
+      <c r="J4" s="19">
+        <f>(D4*G4-D4*G4*H4)*I4</f>
+        <v>7680</v>
+      </c>
+      <c r="K4" s="19">
+        <f>D4*G4-D4*G4*H4</f>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="15">
+        <v>21101800</v>
+      </c>
+      <c r="B5" s="18">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="C5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="17">
+        <v>3</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="4">
-        <v>16000</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="G5" s="19">
+        <v>1500</v>
+      </c>
+      <c r="H5" s="20">
         <v>0</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I5" s="20">
         <v>0.16</v>
       </c>
-      <c r="J3" s="4">
-        <f>(D3*G3-D3*G3*H3)*I3</f>
-        <v>2560</v>
-      </c>
-      <c r="K3" s="4">
-        <f>D3*G3-D3*G3*H3</f>
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>21101800</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="J5" s="19">
+        <f t="shared" ref="J5:J6" si="0">(D5*G5-D5*G5*H5)*I5</f>
+        <v>720</v>
+      </c>
+      <c r="K5" s="19">
+        <f t="shared" ref="K5:K8" si="1">D5*G5-D5*G5*H5</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="15">
+        <v>70171700</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="17">
+        <v>3</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="19">
+        <v>2500</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0</v>
+      </c>
+      <c r="I6" s="20">
+        <v>0.16</v>
+      </c>
+      <c r="J6" s="19">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="K6" s="19">
+        <f t="shared" si="1"/>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="15">
+        <v>41111900</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="17">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="9">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1500</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="E7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="19">
         <v>0</v>
       </c>
-      <c r="I4" s="2">
+      <c r="H7" s="20">
+        <v>0</v>
+      </c>
+      <c r="I7" s="20">
         <v>0.16</v>
       </c>
-      <c r="J4" s="4">
-        <f t="shared" ref="J4:J5" si="0">(D4*G4-D4*G4*H4)*I4</f>
-        <v>240</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" ref="K4:K7" si="1">D4*G4-D4*G4*H4</f>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>70171700</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="9">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="4">
-        <v>2500</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="J7" s="19">
+        <f>(D7*G7-D7*G7*H7)*I7</f>
         <v>0</v>
       </c>
-      <c r="I5" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="1"/>
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>41111900</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="J6" s="4">
-        <f>(D6*G6-D6*G6*H6)*I6</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
+      <c r="K7" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="21">
         <v>41111900</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B8" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="23">
+        <v>3</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="9">
+      <c r="F8" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="24">
+        <v>3000</v>
+      </c>
+      <c r="H8" s="25">
         <v>1</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="4">
-        <v>3000</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="I8" s="25">
         <v>0.16</v>
       </c>
-      <c r="J7" s="4">
-        <f>(D7*G7-D7*G7*H7)*I7</f>
+      <c r="J8" s="24">
+        <f>(D8*G8-D8*G8*H8)*I8</f>
         <v>0</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K8" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="14" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="7">
-        <f>SUM(K3:K7)</f>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I9" s="10" t="s">
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="14">
+        <f>SUM(K4:K8)</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="10">
+        <f>SUM(J4:J8)</f>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="8">
-        <f>SUM(J3:J7)</f>
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="8">
-        <f>SUM(K8:K9)</f>
-        <v>23200</v>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="3">
+        <f>SUM(K10:K11)</f>
+        <v>69600</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
+  <mergeCells count="16">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -877,27 +962,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>21101800</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -905,13 +990,13 @@
         <v>70171700</v>
       </c>
       <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -919,13 +1004,13 @@
         <v>41111900</v>
       </c>
       <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -933,13 +1018,13 @@
         <v>81111500</v>
       </c>
       <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
